--- a/data/trans_camb/P3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,05</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-19,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,47</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 16,87</t>
+          <t>-23,56; 24,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 12,67</t>
+          <t>-26,04; 20,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 10,22</t>
+          <t>-27,42; 20,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 20,1</t>
+          <t>-22,04; 24,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 11,16</t>
+          <t>-24,43; 17,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 8,3</t>
+          <t>-29,83; 11,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 13,84</t>
+          <t>-30,2; 10,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 7,59</t>
+          <t>-38,49; 3,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 5,66</t>
+          <t>-16,34; 14,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-21,47; 10,13</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,39; 9,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-23,04; 7,16</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,49%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>-5,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>-12,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>-15,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>-28,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-13,29%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 30,98</t>
+          <t>-30,37; 43,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 23,4</t>
+          <t>-34,87; 36,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 17,73</t>
+          <t>-35,31; 38,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 43,04</t>
+          <t>-28,2; 42,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 22,96</t>
+          <t>-32,3; 32,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 17,02</t>
+          <t>-40,18; 21,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 26,71</t>
+          <t>-40,74; 20,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 14,22</t>
+          <t>-52,9; 6,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 10,27</t>
+          <t>-21,86; 24,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,98; 17,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-29,47; 16,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,94; 12,31</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 20,9</t>
+          <t>-22,41; 28,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 25,29</t>
+          <t>-20,08; 31,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 24,91</t>
+          <t>-18,42; 35,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 14,08</t>
+          <t>-20,51; 34,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 13,11</t>
+          <t>-17,82; 18,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 13,6</t>
+          <t>-20,48; 13,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 13,04</t>
+          <t>-20,95; 13,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 15,14</t>
+          <t>-13,94; 22,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 14,72</t>
+          <t>-13,51; 17,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-13,42; 17,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 19,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 23,58</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 84,03</t>
+          <t>-51,31; 136,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 103,02</t>
+          <t>-43,8; 158,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 99,6</t>
+          <t>-39,67; 182,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 50,92</t>
+          <t>-55,09; 185,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 47,15</t>
+          <t>-37,62; 62,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 51,92</t>
+          <t>-45,29; 50,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 43,66</t>
+          <t>-44,78; 49,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,68; 51,08</t>
+          <t>-29,03; 82,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 51,06</t>
+          <t>-33,11; 62,49</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,06; 65,47</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,54; 74,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-36,98; 82,26</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 21,07</t>
+          <t>-13,41; 21,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 13,61</t>
+          <t>-17,29; 17,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 13,64</t>
+          <t>-18,73; 17,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 12,68</t>
+          <t>-24,46; 11,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 11,43</t>
+          <t>-13,25; 14,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 12,7</t>
+          <t>-16,26; 11,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 12,3</t>
+          <t>-16,34; 11,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 8,49</t>
+          <t>-9,95; 17,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 8,79</t>
+          <t>-9,29; 13,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; 10,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-12,46; 10,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 11,75</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>-5,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 52,1</t>
+          <t>-20,51; 46,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 34,52</t>
+          <t>-27,64; 35,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 33,0</t>
+          <t>-29,58; 34,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 33,69</t>
+          <t>-38,16; 24,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 30,87</t>
+          <t>-25,83; 42,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 33,04</t>
+          <t>-33,09; 33,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 31,17</t>
+          <t>-33,47; 32,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 21,44</t>
+          <t>-20,11; 49,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 22,19</t>
+          <t>-16,83; 32,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-22,79; 24,75</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 24,62</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,59; 27,66</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 13,42</t>
+          <t>-16,63; 13,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 12,87</t>
+          <t>-15,85; 15,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 12,78</t>
+          <t>-15,9; 15,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 12,49</t>
+          <t>-15,93; 15,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 11,73</t>
+          <t>-12,58; 13,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 10,88</t>
+          <t>-12,52; 14,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 9,46</t>
+          <t>-13,64; 12,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 8,5</t>
+          <t>-14,17; 13,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 8,71</t>
+          <t>-11,14; 10,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 10,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 10,28</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 9,43</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 27,49</t>
+          <t>-28,05; 33,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 26,77</t>
+          <t>-25,57; 38,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 26,74</t>
+          <t>-25,87; 39,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 30,85</t>
+          <t>-28,25; 36,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 29,7</t>
+          <t>-26,52; 40,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 27,19</t>
+          <t>-26,6; 42,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 21,06</t>
+          <t>-29,66; 38,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 18,6</t>
+          <t>-29,48; 39,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 19,11</t>
+          <t>-21,74; 25,14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 26,84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-21,5; 26,64</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 23,68</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>1,54</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 15,22</t>
+          <t>-16,47; 18,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 16,5</t>
+          <t>-16,62; 18,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 16,89</t>
+          <t>-14,97; 19,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 13,49</t>
+          <t>-16,2; 17,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 13,95</t>
+          <t>-19,08; 20,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 12,58</t>
+          <t>-19,72; 20,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 10,78</t>
+          <t>-20,6; 19,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 12,04</t>
+          <t>-22,93; 16,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 11,9</t>
+          <t>-12,56; 14,9</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-12,93; 14,35</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 14,88</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 11,3</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 34,15</t>
+          <t>-28,73; 49,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 37,55</t>
+          <t>-29,03; 48,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,91; 38,52</t>
+          <t>-26,65; 51,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 31,12</t>
+          <t>-28,96; 45,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 32,5</t>
+          <t>-32,82; 52,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 29,34</t>
+          <t>-33,74; 52,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 23,35</t>
+          <t>-34,92; 50,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 25,84</t>
+          <t>-39,24; 42,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 25,71</t>
+          <t>-22,61; 35,25</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-23,07; 34,58</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; 35,78</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; 27,11</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 16,09</t>
+          <t>-26,08; 22,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 17,55</t>
+          <t>-24,0; 22,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 18,05</t>
+          <t>-22,5; 23,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 15,32</t>
+          <t>-17,84; 25,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 12,24</t>
+          <t>-20,96; 21,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 10,51</t>
+          <t>-21,72; 21,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 10,93</t>
+          <t>-20,85; 21,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 10,26</t>
+          <t>-19,8; 23,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 8,68</t>
+          <t>-17,14; 14,46</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-16,0; 15,98</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-15,72; 15,46</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-15,49; 17,82</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-12,79%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-5,3%</t>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-1,34%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 38,3</t>
+          <t>-37,47; 46,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 44,25</t>
+          <t>-34,01; 49,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 43,84</t>
+          <t>-32,19; 52,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 51,74</t>
+          <t>-27,18; 55,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-40,4; 39,06</t>
+          <t>-44,8; 79,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 30,77</t>
+          <t>-44,39; 75,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 29,78</t>
+          <t>-45,14; 80,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 26,88</t>
+          <t>-44,2; 83,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 22,71</t>
+          <t>-31,92; 35,32</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-29,31; 40,87</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 41,77</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; 45,33</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 8,14</t>
+          <t>-9,07; 10,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 7,58</t>
+          <t>-8,34; 10,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,99</t>
+          <t>-7,47; 11,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,5</t>
+          <t>-10,63; 9,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 4,34</t>
+          <t>-6,95; 6,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 3,29</t>
+          <t>-8,95; 4,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,76</t>
+          <t>-9,23; 4,27</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,34</t>
+          <t>-8,33; 6,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,82</t>
+          <t>-5,46; 5,97</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 5,29</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 6,01</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 4,96</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 17,77</t>
+          <t>-16,63; 21,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 16,06</t>
+          <t>-15,42; 22,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 15,4</t>
+          <t>-13,89; 24,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 15,5</t>
+          <t>-20,24; 19,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 10,32</t>
+          <t>-14,69; 15,52</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 7,51</t>
+          <t>-18,45; 11,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 13,03</t>
+          <t>-19,56; 10,43</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 9,51</t>
+          <t>-17,35; 16,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 8,44</t>
+          <t>-10,52; 13,53</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 11,84</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 13,54</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 10,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
